--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="NIS2_Notice" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="NIS2_properties" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="NIS2_compliance" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>Term</t>
   </si>
@@ -165,6 +166,54 @@
   </si>
   <si>
     <t>ParentProperty</t>
+  </si>
+  <si>
+    <t>NIS2 specific statuses in dpv-NIS2</t>
+  </si>
+  <si>
+    <t>NIS2Lawfulness</t>
+  </si>
+  <si>
+    <t>NIS2 Lawfulness</t>
+  </si>
+  <si>
+    <t>Status or state associated with being lawful or legally compliant regarding NIS2</t>
+  </si>
+  <si>
+    <t>dpv:Lawfulness</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Beatriz Esteves</t>
+  </si>
+  <si>
+    <t>NIS2Compliant</t>
+  </si>
+  <si>
+    <t>NIS2 Compliant</t>
+  </si>
+  <si>
+    <t>State of being lawful or legally compliant for NIS2</t>
+  </si>
+  <si>
+    <t>eu-nis2:NIS2Lawfulness</t>
+  </si>
+  <si>
+    <t>NIS2NonCompliant</t>
+  </si>
+  <si>
+    <t>NIS2 Non-compliant</t>
+  </si>
+  <si>
+    <t>State of being unlawful or legally non-compliant for NIS2</t>
+  </si>
+  <si>
+    <t>NIS2ComplianceUnknown</t>
+  </si>
+  <si>
+    <t>NIS2 Compliance Unknown</t>
+  </si>
+  <si>
+    <t>State where lawfulness or compliance with NIS2 is unknown</t>
   </si>
 </sst>
 </file>
@@ -293,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -365,6 +414,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -427,6 +479,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4241,4 +4297,314 @@
   </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.13"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="K2" s="12"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12">
+        <v>45494.0</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12">
+        <v>45494.0</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12">
+        <v>45494.0</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12">
+        <v>45494.0</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="K7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="K8" s="12"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AD43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD43">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>